--- a/biology/Zoologie/Burmadictyna/Burmadictyna.xlsx
+++ b/biology/Zoologie/Burmadictyna/Burmadictyna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Burmadictyna est un  genre éteint d'araignées aranéomorphes de la famille des Burmadictynidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Burmadictyna est un  genre éteint d'araignées aranéomorphes de la famille des Burmadictynidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de Birmanie. Elles datent du Crétacé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de Birmanie. Elles datent du Crétacé.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The World Spider Catalog 18.0[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The World Spider Catalog 18.0 :
 † Burmadictyna clava Wunderlich, 2015
 † Burmadictyna excavata Wunderlich, 2015
 † Burmadictyna pecten Wunderlich, 2008
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Wunderlich, 2008 : The dominance of ancient spider families of the Araneae: Haplogyne in the Cretaceous, and the late diversification of advanced ecribellate spiders of the Entelegynae after the Cretaceous–Tertiary boundary extinction events, with descriptions of new families. Beiträge zur Araneologie, vol. 5, p. 524–675 (en).</t>
         </is>
